--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1144,10 +1156,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1191,28 +1203,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1237,28 +1249,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1549,10 +1561,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1596,28 +1608,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1642,28 +1654,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2157,10 +2169,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2204,28 +2216,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2250,28 +2262,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2707,10 +2719,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2754,28 +2766,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2800,28 +2812,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3025,10 +3037,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3072,28 +3084,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3118,28 +3130,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3372,10 +3384,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3419,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3465,28 +3477,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3661,10 +3673,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3708,28 +3720,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3754,28 +3766,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4037,10 +4049,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4084,28 +4096,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4130,28 +4142,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4239,10 +4251,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4286,28 +4298,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4332,28 +4344,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4441,10 +4453,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4488,28 +4500,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4534,28 +4546,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
